--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E404A8B-0DFC-4509-9F89-3EECB8895742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE64DB4-F08A-4BD6-B062-64EF21FEC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29805" yWindow="4275" windowWidth="29535" windowHeight="15345" activeTab="1" xr2:uid="{C725E4D6-E389-46CF-992E-876FB0B0309A}"/>
+    <workbookView xWindow="50830" yWindow="3050" windowWidth="29320" windowHeight="16680" xr2:uid="{C725E4D6-E389-46CF-992E-876FB0B0309A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -111,9 +111,6 @@
     <t>median PFS 11.1m vs. 5.8m pembrolizumab, HR=0.51</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>HARMONi</t>
   </si>
   <si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>39% data maturity, HR=0.777</t>
+  </si>
+  <si>
+    <t>mPFS 11.4mo vs. 6.90mo, HR=0.6</t>
+  </si>
+  <si>
+    <t>Phase III "HARMONi-6" - 1L sqNSCLC ivonescimab+chemo vs. tislelizumab+chemo in China</t>
+  </si>
+  <si>
+    <t>Phase III HARMONi-3 sqNSCLC and nsNSCLC</t>
+  </si>
+  <si>
+    <t>sqNSCLC enrollment complete 1H26, data 2H26</t>
+  </si>
+  <si>
+    <t>nsNSCLC enrollment complete 2H26</t>
+  </si>
+  <si>
+    <t>Q425: submit BLA on HARMONi</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -272,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,20 +696,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A5CBB-7A19-4F35-8D3B-1D30168BAD2C}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -710,11 +729,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -731,13 +750,14 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>737.79704000000004</v>
+        <f>737.79704+26.682846</f>
+        <v>764.47988600000008</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="H4" s="5"/>
       <c r="J4" t="s">
@@ -745,24 +765,24 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>16969.331920000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>15274.308122280001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>104.862+307.487</f>
-        <v>412.34900000000005</v>
+        <f>238.6+500</f>
+        <v>738.6</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
@@ -772,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -788,10 +808,13 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>16556.982920000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>14535.708122280001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -799,7 +822,7 @@
         <v>1287.4469999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>7</v>
       </c>
@@ -808,35 +831,36 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="ivonescimab!A1" display="ivonescimab" xr:uid="{9C2425C2-E851-46E1-910D-C741E2409466}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD94B0B-7B1D-4154-809F-668641535959}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -844,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -852,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -860,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -868,57 +892,82 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C45" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C52" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>30</v>
+    <row r="56" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C56" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -926,6 +975,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{36C6A374-5112-45DA-BEEE-7411AA77ADC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>